--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 600-POS-POS8.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 600-POS-POS8.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="133">
-  <si>
-    <t>Signal_Value_10</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="138">
   <si>
     <t>Signal_Value_11</t>
   </si>
@@ -339,6 +336,27 @@
     <t>Signal_Value_115</t>
   </si>
   <si>
+    <t>Signal_Value_116</t>
+  </si>
+  <si>
+    <t>Signal_Value_117</t>
+  </si>
+  <si>
+    <t>Signal_Value_118</t>
+  </si>
+  <si>
+    <t>Signal_Value_119</t>
+  </si>
+  <si>
+    <t>Signal_Value_120</t>
+  </si>
+  <si>
+    <t>Signal_Value_121</t>
+  </si>
+  <si>
+    <t>Signal_Value_122</t>
+  </si>
+  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -411,10 +429,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -775,15 +790,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DC6"/>
+  <dimension ref="A1:DI6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:107">
+    <row r="1" spans="1:113">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1103,10 +1118,28 @@
       <c r="DC1" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="2" spans="1:107">
+    <row r="2" spans="1:113">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1115,100 +1148,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.06696427498308392</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.001217692060435447</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.005435841058532417</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.01670532880575558</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.03526448416945487</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.004339786149101417</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.03562959712796998</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.01653858413235218</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2306702631379187</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.001412082936658332</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.01624879361141377</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.0007582447366913096</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.03566442812707142</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.09833089368010869</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.001122313174562671</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.1436693245811181</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.006785898536387648</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.005725463754460462</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.04369411661819465</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.01206955175738024</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>7.715897093245853E-05</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.0008898572615844321</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.03112442097637654</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.005824500977037738</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.003703726728433151</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.0003313286392694445</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.01177190357589579</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.02267319202173038</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.0251443129669629</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1.121162437352913E-05</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.08256434356502468</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.03763707955372707</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -1319,100 +1352,100 @@
         <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0009827127870860681</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0001160138343447386</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>3.713223145485306E-06</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.009478164661054873</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.008488142406719662</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0001643831229583555</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.01241641994449021</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0272095034983278</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.03267540284789269</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.00741321386873372</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.002222297920122641</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.03334338543531911</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.06005299227053342</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.0631768866180776</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.03965053493344251</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.001914995438101519</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.02048170772005786</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.07132937291994017</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.08764388816394561</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.07144650966645491</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.05012363732991849</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.01766556854399652</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.0001206123110411165</v>
+        <v>0</v>
       </c>
       <c r="CQ2">
-        <v>0.008732237564599069</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.03045349894941415</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.05162030949587831</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.0688929995762841</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.08628246925175555</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.08076637896261096</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.04556303877691299</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.008833247807089193</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.0007357601497503682</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
         <v>0</v>
@@ -1426,10 +1459,28 @@
       <c r="DC2">
         <v>0</v>
       </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:107">
+    <row r="3" spans="1:113">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1654,105 +1705,123 @@
         <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.007509656696050903</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.003239736588038093</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.003769362841149104</v>
+        <v>0.02864915829301411</v>
       </c>
       <c r="CA3">
-        <v>0.03884411192734868</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.04114676700457958</v>
+        <v>0.02419369549961685</v>
       </c>
       <c r="CC3">
-        <v>0.01155771527529008</v>
+        <v>0.001345106207595021</v>
       </c>
       <c r="CD3">
-        <v>0.003045027938311286</v>
+        <v>0.06525805556911425</v>
       </c>
       <c r="CE3">
-        <v>0.03771448083357391</v>
+        <v>0.0008651883826344962</v>
       </c>
       <c r="CF3">
-        <v>0.05986973644229218</v>
+        <v>0.06566845533456599</v>
       </c>
       <c r="CG3">
-        <v>0.07286485030121478</v>
+        <v>0.02441299289243186</v>
       </c>
       <c r="CH3">
-        <v>0.04376485936745462</v>
+        <v>0.04298616096063978</v>
       </c>
       <c r="CI3">
-        <v>0.003763686883997602</v>
+        <v>0.005216767456827973</v>
       </c>
       <c r="CJ3">
-        <v>0.01928142035037638</v>
+        <v>0.1121803689361098</v>
       </c>
       <c r="CK3">
-        <v>0.06412738201465509</v>
+        <v>0.002259531006827015</v>
       </c>
       <c r="CL3">
-        <v>0.07759191756831128</v>
+        <v>0.000808139872273805</v>
       </c>
       <c r="CM3">
-        <v>0.06880387697617008</v>
+        <v>0.0003498021482462876</v>
       </c>
       <c r="CN3">
-        <v>0.04097202752128704</v>
+        <v>0.009857967996282078</v>
       </c>
       <c r="CO3">
-        <v>0.0122011329267566</v>
+        <v>0.0559965351708829</v>
       </c>
       <c r="CP3">
-        <v>0</v>
+        <v>0.05312996010256155</v>
       </c>
       <c r="CQ3">
-        <v>0.00801651955249689</v>
+        <v>0.06814500527205274</v>
       </c>
       <c r="CR3">
-        <v>0.02274122891769991</v>
+        <v>0.0854030547390023</v>
       </c>
       <c r="CS3">
-        <v>0.03329418907042486</v>
+        <v>0.03472804735230781</v>
       </c>
       <c r="CT3">
-        <v>0.04657476088037057</v>
+        <v>0.008490774025397574</v>
       </c>
       <c r="CU3">
-        <v>0.062466444848505</v>
+        <v>0.04295205489180649</v>
       </c>
       <c r="CV3">
-        <v>0.0616829100367835</v>
+        <v>0.08060691707253033</v>
       </c>
       <c r="CW3">
-        <v>0.03808316610482761</v>
+        <v>0.00462189488101974</v>
       </c>
       <c r="CX3">
-        <v>0.008790330318020042</v>
+        <v>0.06129399221153584</v>
       </c>
       <c r="CY3">
-        <v>0.0003277794437358476</v>
+        <v>0.001936813590913991</v>
       </c>
       <c r="CZ3">
-        <v>0.01007196015381527</v>
+        <v>0.01055273101364627</v>
       </c>
       <c r="DA3">
-        <v>0.02111240772409102</v>
+        <v>0.02416299357750441</v>
       </c>
       <c r="DB3">
-        <v>0.03186118859384787</v>
+        <v>0.02377074327959871</v>
       </c>
       <c r="DC3">
-        <v>0.04490936489852407</v>
+        <v>0.02223383115052866</v>
+      </c>
+      <c r="DD3">
+        <v>0.03762034463417521</v>
+      </c>
+      <c r="DE3">
+        <v>0.0003029164783563822</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:107">
+    <row r="4" spans="1:113">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1761,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1113247496541179</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02291645650968648</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1773,13 +1842,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.002588863614664806</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01232022590877788</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1788,13 +1857,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.001942308351103868</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.009749311620021352</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1803,34 +1872,34 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.05630914696539874</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.07002982867129912</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.1686451222832241</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.1059017744421175</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0271253282491589</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0416620413735397</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.04237579710351858</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.08286477722099092</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.06437148823594666</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1848,13 +1917,13 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.06007643280972816</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.06772688293625626</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.05206946405044898</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1956,100 +2025,100 @@
         <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0</v>
+        <v>0.01580030291907977</v>
       </c>
       <c r="BR4">
-        <v>0</v>
+        <v>0.05299742987132215</v>
       </c>
       <c r="BS4">
-        <v>0</v>
+        <v>0.008301596868165262</v>
       </c>
       <c r="BT4">
-        <v>0</v>
+        <v>0.01180554404622411</v>
       </c>
       <c r="BU4">
-        <v>0</v>
+        <v>0.0002842452841914951</v>
       </c>
       <c r="BV4">
-        <v>0</v>
+        <v>0.04449444366265431</v>
       </c>
       <c r="BW4">
-        <v>0</v>
+        <v>0.02986603682466719</v>
       </c>
       <c r="BX4">
-        <v>0</v>
+        <v>0.02114050999864767</v>
       </c>
       <c r="BY4">
-        <v>0</v>
+        <v>0.001946861054458554</v>
       </c>
       <c r="BZ4">
-        <v>0</v>
+        <v>0.09956818685794734</v>
       </c>
       <c r="CA4">
-        <v>0</v>
+        <v>0.007550131396350523</v>
       </c>
       <c r="CB4">
-        <v>0</v>
+        <v>0.05634676195185746</v>
       </c>
       <c r="CC4">
-        <v>0</v>
+        <v>0.004010289498297709</v>
       </c>
       <c r="CD4">
-        <v>0</v>
+        <v>0.06294608593764957</v>
       </c>
       <c r="CE4">
-        <v>0</v>
+        <v>0.02678954101250073</v>
       </c>
       <c r="CF4">
-        <v>0</v>
+        <v>0.01589983591716084</v>
       </c>
       <c r="CG4">
-        <v>0</v>
+        <v>0.008760509451327596</v>
       </c>
       <c r="CH4">
-        <v>0</v>
+        <v>0.01716534974207473</v>
       </c>
       <c r="CI4">
-        <v>0</v>
+        <v>0.07026311949777754</v>
       </c>
       <c r="CJ4">
-        <v>0</v>
+        <v>0.05154501210415714</v>
       </c>
       <c r="CK4">
-        <v>0</v>
+        <v>0.04580957692589988</v>
       </c>
       <c r="CL4">
-        <v>0</v>
+        <v>0.009295765469238878</v>
       </c>
       <c r="CM4">
-        <v>0</v>
+        <v>0.1035073630029414</v>
       </c>
       <c r="CN4">
-        <v>0</v>
+        <v>0.003781167136712872</v>
       </c>
       <c r="CO4">
-        <v>0</v>
+        <v>0.01055015990511054</v>
       </c>
       <c r="CP4">
-        <v>0</v>
+        <v>0.01582976837591396</v>
       </c>
       <c r="CQ4">
-        <v>0</v>
+        <v>5.594297932569089E-05</v>
       </c>
       <c r="CR4">
-        <v>0</v>
+        <v>0.02673066163672428</v>
       </c>
       <c r="CS4">
-        <v>0</v>
+        <v>0.03889320249196943</v>
       </c>
       <c r="CT4">
-        <v>0</v>
+        <v>0.06231557136778374</v>
       </c>
       <c r="CU4">
-        <v>0</v>
+        <v>0.01531527626379361</v>
       </c>
       <c r="CV4">
-        <v>0</v>
+        <v>0.06043375054807403</v>
       </c>
       <c r="CW4">
         <v>0</v>
@@ -2072,10 +2141,28 @@
       <c r="DC4">
         <v>0</v>
       </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:107">
+    <row r="5" spans="1:113">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2297,108 +2384,126 @@
         <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.00239956891910933</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.009386248429021495</v>
+        <v>0.01149316529772513</v>
       </c>
       <c r="BY5">
-        <v>0.005094009486782057</v>
+        <v>0.003757121786994803</v>
       </c>
       <c r="BZ5">
-        <v>0</v>
+        <v>0.0008297464163906606</v>
       </c>
       <c r="CA5">
-        <v>0.008863461957565304</v>
+        <v>0.004752630668380842</v>
       </c>
       <c r="CB5">
-        <v>0.04474931389604841</v>
+        <v>0.03517153287744482</v>
       </c>
       <c r="CC5">
-        <v>0.03218850086588126</v>
+        <v>0.002919705734355457</v>
       </c>
       <c r="CD5">
-        <v>0.001461838478707188</v>
+        <v>0.09991095096908019</v>
       </c>
       <c r="CE5">
-        <v>0.01008803066068598</v>
+        <v>0.01600134037380501</v>
       </c>
       <c r="CF5">
-        <v>0.03846779340777097</v>
+        <v>0.04006831457994529</v>
       </c>
       <c r="CG5">
-        <v>0.06722008466004424</v>
+        <v>0.02971550252401985</v>
       </c>
       <c r="CH5">
-        <v>0.07027077594316311</v>
+        <v>0.03589613390321175</v>
       </c>
       <c r="CI5">
-        <v>0.01902257801441457</v>
+        <v>0.0707210042604616</v>
       </c>
       <c r="CJ5">
-        <v>0.003980627419083282</v>
+        <v>0.04372995190544923</v>
       </c>
       <c r="CK5">
-        <v>0.05161550013525772</v>
+        <v>0.0876283908927112</v>
       </c>
       <c r="CL5">
-        <v>0.07870533203697712</v>
+        <v>0.004582838572532828</v>
       </c>
       <c r="CM5">
-        <v>0.07945100293323749</v>
+        <v>1.528373829113376E-05</v>
       </c>
       <c r="CN5">
-        <v>0.06367157786221793</v>
+        <v>0.05986073888692894</v>
       </c>
       <c r="CO5">
-        <v>0.03474428737212261</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.004270046633453203</v>
+        <v>0.1316576192800547</v>
       </c>
       <c r="CQ5">
-        <v>0</v>
+        <v>0.0635357900754932</v>
       </c>
       <c r="CR5">
-        <v>0.009571707948215614</v>
+        <v>0.001596420079551492</v>
       </c>
       <c r="CS5">
-        <v>0.0330834942832533</v>
+        <v>0.0009096167211431595</v>
       </c>
       <c r="CT5">
-        <v>0.05408639916966495</v>
+        <v>0.07865614283884351</v>
       </c>
       <c r="CU5">
-        <v>0.07321169440763529</v>
+        <v>0.001849296403115837</v>
       </c>
       <c r="CV5">
-        <v>0.08098982274353178</v>
+        <v>0.04874490706483725</v>
       </c>
       <c r="CW5">
-        <v>0.05857908751331305</v>
+        <v>0.01103297966877555</v>
       </c>
       <c r="CX5">
-        <v>0.02511288140208313</v>
+        <v>0.006644654867170617</v>
       </c>
       <c r="CY5">
-        <v>0.001804473998709023</v>
+        <v>0.04254975388289806</v>
       </c>
       <c r="CZ5">
-        <v>0.001810758603243051</v>
+        <v>0.00747890905645864</v>
       </c>
       <c r="DA5">
-        <v>0.009802701722022656</v>
+        <v>0.01144411219983798</v>
       </c>
       <c r="DB5">
-        <v>0.02629639909678499</v>
+        <v>0.03895411859134588</v>
       </c>
       <c r="DC5">
+        <v>0.007891325882745376</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DF5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DH5">
+        <v>0</v>
+      </c>
+      <c r="DI5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:107">
+    <row r="6" spans="1:113">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2491,34 +2596,34 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.3190291204647784</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.2283044194347323</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.09284886776651738</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.03542621147194602</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0268081432573518</v>
+        <v>0</v>
       </c>
       <c r="AK6">
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.002768460897136426</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.009695108855113823</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.1399130752921515</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.01544797652089054</v>
+        <v>0</v>
       </c>
       <c r="AP6">
         <v>0</v>
@@ -2542,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0138731129866316</v>
+        <v>0</v>
       </c>
       <c r="AX6">
         <v>0</v>
@@ -2551,10 +2656,10 @@
         <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.0008265224377859838</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.0005369029813467737</v>
+        <v>0</v>
       </c>
       <c r="BB6">
         <v>0</v>
@@ -2563,28 +2668,28 @@
         <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.02213245443426507</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.01504697234043426</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.0001512566727089406</v>
+        <v>0</v>
       </c>
       <c r="BG6">
         <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.0181964566213555</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.02663910581711636</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.01527462306422554</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.0170812086835118</v>
+        <v>0</v>
       </c>
       <c r="BL6">
         <v>0</v>
@@ -2641,82 +2746,100 @@
         <v>0</v>
       </c>
       <c r="CD6">
-        <v>0</v>
+        <v>0.04379986570066969</v>
       </c>
       <c r="CE6">
-        <v>0</v>
+        <v>0.03324230106653509</v>
       </c>
       <c r="CF6">
-        <v>0</v>
+        <v>0.02781186624394629</v>
       </c>
       <c r="CG6">
-        <v>0</v>
+        <v>0.003987677885907011</v>
       </c>
       <c r="CH6">
-        <v>0</v>
+        <v>0.003454509174252363</v>
       </c>
       <c r="CI6">
-        <v>0</v>
+        <v>0.06942151890540925</v>
       </c>
       <c r="CJ6">
-        <v>0</v>
+        <v>0.04231915818618164</v>
       </c>
       <c r="CK6">
         <v>0</v>
       </c>
       <c r="CL6">
-        <v>0</v>
+        <v>0.0313949544734282</v>
       </c>
       <c r="CM6">
-        <v>0</v>
+        <v>0.07346806944407597</v>
       </c>
       <c r="CN6">
-        <v>0</v>
+        <v>0.05181648121419954</v>
       </c>
       <c r="CO6">
-        <v>0</v>
+        <v>0.09365195727434104</v>
       </c>
       <c r="CP6">
-        <v>0</v>
+        <v>0.002269809929744329</v>
       </c>
       <c r="CQ6">
-        <v>0</v>
+        <v>0.0545429530604259</v>
       </c>
       <c r="CR6">
-        <v>0</v>
+        <v>0.001605013199731689</v>
       </c>
       <c r="CS6">
-        <v>0</v>
+        <v>0.01666464086176905</v>
       </c>
       <c r="CT6">
-        <v>0</v>
+        <v>0.01259298258891994</v>
       </c>
       <c r="CU6">
-        <v>0</v>
+        <v>0.07032561482180824</v>
       </c>
       <c r="CV6">
-        <v>0</v>
+        <v>0.03953370564425471</v>
       </c>
       <c r="CW6">
-        <v>0</v>
+        <v>0.03953370564425471</v>
       </c>
       <c r="CX6">
-        <v>0</v>
+        <v>0.0144795204945765</v>
       </c>
       <c r="CY6">
-        <v>0</v>
+        <v>0.006200024006873169</v>
       </c>
       <c r="CZ6">
-        <v>0</v>
+        <v>0.02591499136460101</v>
       </c>
       <c r="DA6">
-        <v>0</v>
+        <v>0.004107017479546247</v>
       </c>
       <c r="DB6">
-        <v>0</v>
+        <v>0.0004856750821395558</v>
       </c>
       <c r="DC6">
-        <v>0</v>
+        <v>0.006047554924292949</v>
+      </c>
+      <c r="DD6">
+        <v>0.0230617764511294</v>
+      </c>
+      <c r="DE6">
+        <v>0.02163348302228824</v>
+      </c>
+      <c r="DF6">
+        <v>0.01243128644144187</v>
+      </c>
+      <c r="DG6">
+        <v>0.04003069001344634</v>
+      </c>
+      <c r="DH6">
+        <v>0.09557002148765857</v>
+      </c>
+      <c r="DI6">
+        <v>0.03860117391215154</v>
       </c>
     </row>
   </sheetData>
@@ -2726,15 +2849,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DC6"/>
+  <dimension ref="A1:DI6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:107">
+    <row r="1" spans="1:113">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3054,10 +3177,28 @@
       <c r="DC1" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="2" spans="1:107">
+    <row r="2" spans="1:113">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3066,321 +3207,339 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.06696427498308392</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.06818196704351936</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.07361780810205178</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.09032313690780736</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1255876210772622</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1299274072263636</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1655570043543336</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1820955884866858</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4127658516246044</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.4141779345612628</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.4304267281726766</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.4311849729093679</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.4668494010364393</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.565180294716548</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.5663026078911106</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.7099719324722288</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.7167578310086165</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.7224832947630769</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.7661774113812716</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.7782469631386518</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.7783241221095842</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.7792139793711687</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.8103384003475452</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.8161629013245829</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.819866628053016</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.8201979566922855</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.8319698602681812</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.8546430522899116</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.8797873652568744</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.879798576881248</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.9623629204462727</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BF2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BG2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BH2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BJ2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BL2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT2">
-        <v>0.0009827127870860681</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BU2">
-        <v>0.001098726621430807</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BV2">
-        <v>0.001102439844576292</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BW2">
-        <v>0.01058060450563117</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BX2">
-        <v>0.01906874691235083</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BY2">
-        <v>0.01923313003530918</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BZ2">
-        <v>0.03164954997979939</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CA2">
-        <v>0.05885905347812719</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CB2">
-        <v>0.09153445632601986</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CC2">
-        <v>0.09894767019475359</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CD2">
-        <v>0.1011699681148762</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CE2">
-        <v>0.1345133535501953</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CF2">
-        <v>0.1945663458207288</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CG2">
-        <v>0.2577432324388064</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CH2">
-        <v>0.2973937673722489</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CI2">
-        <v>0.2993087628103504</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CJ2">
-        <v>0.3197904705304083</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CK2">
-        <v>0.3911198434503484</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CL2">
-        <v>0.4787637316142941</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CM2">
-        <v>0.550210241280749</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CN2">
-        <v>0.6003338786106676</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CO2">
-        <v>0.617999447154664</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CP2">
-        <v>0.6181200594657051</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CQ2">
-        <v>0.6268522970303042</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CR2">
-        <v>0.6573057959797184</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CS2">
-        <v>0.7089261054755966</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CT2">
-        <v>0.7778191050518808</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CU2">
-        <v>0.8641015743036363</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CV2">
-        <v>0.9448679532662473</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CW2">
-        <v>0.9904309920431603</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CX2">
-        <v>0.9992642398502495</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CY2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CZ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DA2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DB2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DC2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DD2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DE2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DF2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DG2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DH2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DI2">
+        <v>0.9999999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:107">
+    <row r="3" spans="1:113">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3605,105 +3764,123 @@
         <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.007509656696050903</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.01074939328408899</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.0145187561252381</v>
+        <v>0.02864915829301411</v>
       </c>
       <c r="CA3">
-        <v>0.05336286805258678</v>
+        <v>0.02864915829301411</v>
       </c>
       <c r="CB3">
-        <v>0.09450963505716636</v>
+        <v>0.05284285379263096</v>
       </c>
       <c r="CC3">
-        <v>0.1060673503324564</v>
+        <v>0.05418796000022598</v>
       </c>
       <c r="CD3">
-        <v>0.1091123782707677</v>
+        <v>0.1194460155693402</v>
       </c>
       <c r="CE3">
-        <v>0.1468268591043416</v>
+        <v>0.1203112039519747</v>
       </c>
       <c r="CF3">
-        <v>0.2066965955466338</v>
+        <v>0.1859796592865407</v>
       </c>
       <c r="CG3">
-        <v>0.2795614458478486</v>
+        <v>0.2103926521789726</v>
       </c>
       <c r="CH3">
-        <v>0.3233263052153032</v>
+        <v>0.2533788131396124</v>
       </c>
       <c r="CI3">
-        <v>0.3270899920993008</v>
+        <v>0.2585955805964403</v>
       </c>
       <c r="CJ3">
-        <v>0.3463714124496772</v>
+        <v>0.3707759495325501</v>
       </c>
       <c r="CK3">
-        <v>0.4104987944643322</v>
+        <v>0.3730354805393771</v>
       </c>
       <c r="CL3">
-        <v>0.4880907120326435</v>
+        <v>0.3738436204116509</v>
       </c>
       <c r="CM3">
-        <v>0.5568945890088136</v>
+        <v>0.3741934225598972</v>
       </c>
       <c r="CN3">
-        <v>0.5978666165301006</v>
+        <v>0.3840513905561793</v>
       </c>
       <c r="CO3">
-        <v>0.6100677494568573</v>
+        <v>0.4400479257270622</v>
       </c>
       <c r="CP3">
-        <v>0.6100677494568573</v>
+        <v>0.4931778858296237</v>
       </c>
       <c r="CQ3">
-        <v>0.6180842690093542</v>
+        <v>0.5613228911016764</v>
       </c>
       <c r="CR3">
-        <v>0.6408254979270541</v>
+        <v>0.6467259458406788</v>
       </c>
       <c r="CS3">
-        <v>0.6741196869974789</v>
+        <v>0.6814539931929866</v>
       </c>
       <c r="CT3">
-        <v>0.7206944478778495</v>
+        <v>0.6899447672183842</v>
       </c>
       <c r="CU3">
-        <v>0.7831608927263545</v>
+        <v>0.7328968221101907</v>
       </c>
       <c r="CV3">
-        <v>0.844843802763138</v>
+        <v>0.813503739182721</v>
       </c>
       <c r="CW3">
-        <v>0.8829269688679656</v>
+        <v>0.8181256340637407</v>
       </c>
       <c r="CX3">
-        <v>0.8917172991859856</v>
+        <v>0.8794196262752766</v>
       </c>
       <c r="CY3">
-        <v>0.8920450786297215</v>
+        <v>0.8813564398661906</v>
       </c>
       <c r="CZ3">
-        <v>0.9021170387835368</v>
+        <v>0.8919091708798369</v>
       </c>
       <c r="DA3">
-        <v>0.9232294465076278</v>
+        <v>0.9160721644573413</v>
       </c>
       <c r="DB3">
-        <v>0.9550906351014757</v>
+        <v>0.93984290773694</v>
       </c>
       <c r="DC3">
-        <v>0.9999999999999998</v>
+        <v>0.9620767388874687</v>
+      </c>
+      <c r="DD3">
+        <v>0.9996970835216439</v>
+      </c>
+      <c r="DE3">
+        <v>1</v>
+      </c>
+      <c r="DF3">
+        <v>1</v>
+      </c>
+      <c r="DG3">
+        <v>1</v>
+      </c>
+      <c r="DH3">
+        <v>1</v>
+      </c>
+      <c r="DI3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:107">
+    <row r="4" spans="1:113">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3712,321 +3889,339 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1113247496541179</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1342412061638044</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1342412061638044</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.1342412061638044</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.1368300697784692</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1368300697784692</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1491502956872471</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1491502956872471</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1491502956872471</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1510926040383509</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.1510926040383509</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1608419156583723</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.1608419156583723</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.1608419156583723</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.217151062623771</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2871808912950701</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.4558260135782943</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.5617277880204118</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.5888531162695707</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.5888531162695707</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.6305151576431104</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.672890954746629</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.7557557319676199</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.8201272202035665</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.8201272202035665</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.8201272202035665</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.8201272202035665</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.8201272202035665</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.8201272202035665</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.8802036530132947</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.947930535949551</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>1</v>
+        <v>0.01580030291907977</v>
       </c>
       <c r="BR4">
-        <v>1</v>
+        <v>0.06879773279040191</v>
       </c>
       <c r="BS4">
-        <v>1</v>
+        <v>0.07709932965856717</v>
       </c>
       <c r="BT4">
-        <v>1</v>
+        <v>0.08890487370479128</v>
       </c>
       <c r="BU4">
-        <v>1</v>
+        <v>0.08918911898898277</v>
       </c>
       <c r="BV4">
-        <v>1</v>
+        <v>0.1336835626516371</v>
       </c>
       <c r="BW4">
-        <v>1</v>
+        <v>0.1635495994763043</v>
       </c>
       <c r="BX4">
-        <v>1</v>
+        <v>0.1846901094749519</v>
       </c>
       <c r="BY4">
-        <v>1</v>
+        <v>0.1866369705294105</v>
       </c>
       <c r="BZ4">
-        <v>1</v>
+        <v>0.2862051573873578</v>
       </c>
       <c r="CA4">
-        <v>1</v>
+        <v>0.2937552887837083</v>
       </c>
       <c r="CB4">
-        <v>1</v>
+        <v>0.3501020507355658</v>
       </c>
       <c r="CC4">
-        <v>1</v>
+        <v>0.3541123402338635</v>
       </c>
       <c r="CD4">
-        <v>1</v>
+        <v>0.4170584261715131</v>
       </c>
       <c r="CE4">
-        <v>1</v>
+        <v>0.4438479671840138</v>
       </c>
       <c r="CF4">
-        <v>1</v>
+        <v>0.4597478031011746</v>
       </c>
       <c r="CG4">
-        <v>1</v>
+        <v>0.4685083125525022</v>
       </c>
       <c r="CH4">
-        <v>1</v>
+        <v>0.485673662294577</v>
       </c>
       <c r="CI4">
-        <v>1</v>
+        <v>0.5559367817923545</v>
       </c>
       <c r="CJ4">
-        <v>1</v>
+        <v>0.6074817938965117</v>
       </c>
       <c r="CK4">
-        <v>1</v>
+        <v>0.6532913708224115</v>
       </c>
       <c r="CL4">
-        <v>1</v>
+        <v>0.6625871362916503</v>
       </c>
       <c r="CM4">
-        <v>1</v>
+        <v>0.7660944992945917</v>
       </c>
       <c r="CN4">
-        <v>1</v>
+        <v>0.7698756664313046</v>
       </c>
       <c r="CO4">
-        <v>1</v>
+        <v>0.7804258263364151</v>
       </c>
       <c r="CP4">
-        <v>1</v>
+        <v>0.7962555947123291</v>
       </c>
       <c r="CQ4">
-        <v>1</v>
+        <v>0.7963115376916547</v>
       </c>
       <c r="CR4">
-        <v>1</v>
+        <v>0.8230421993283791</v>
       </c>
       <c r="CS4">
-        <v>1</v>
+        <v>0.8619354018203484</v>
       </c>
       <c r="CT4">
-        <v>1</v>
+        <v>0.9242509731881322</v>
       </c>
       <c r="CU4">
-        <v>1</v>
+        <v>0.9395662494519258</v>
       </c>
       <c r="CV4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CW4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CX4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CY4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CZ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DA4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DB4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DC4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DD4">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DE4">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DF4">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DG4">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DH4">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DI4">
+        <v>0.9999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:107">
+    <row r="5" spans="1:113">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4248,108 +4443,126 @@
         <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.00239956891910933</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.01178581734813083</v>
+        <v>0.01149316529772513</v>
       </c>
       <c r="BY5">
-        <v>0.01687982683491288</v>
+        <v>0.01525028708471993</v>
       </c>
       <c r="BZ5">
-        <v>0.01687982683491288</v>
+        <v>0.01608003350111059</v>
       </c>
       <c r="CA5">
-        <v>0.02574328879247819</v>
+        <v>0.02083266416949144</v>
       </c>
       <c r="CB5">
-        <v>0.0704926026885266</v>
+        <v>0.05600419704693625</v>
       </c>
       <c r="CC5">
-        <v>0.1026811035544079</v>
+        <v>0.05892390278129171</v>
       </c>
       <c r="CD5">
-        <v>0.1041429420331151</v>
+        <v>0.1588348537503719</v>
       </c>
       <c r="CE5">
-        <v>0.114230972693801</v>
+        <v>0.1748361941241769</v>
       </c>
       <c r="CF5">
-        <v>0.152698766101572</v>
+        <v>0.2149045087041222</v>
       </c>
       <c r="CG5">
-        <v>0.2199188507616163</v>
+        <v>0.2446200112281421</v>
       </c>
       <c r="CH5">
-        <v>0.2901896267047794</v>
+        <v>0.2805161451313538</v>
       </c>
       <c r="CI5">
-        <v>0.309212204719194</v>
+        <v>0.3512371493918154</v>
       </c>
       <c r="CJ5">
-        <v>0.3131928321382773</v>
+        <v>0.3949671012972646</v>
       </c>
       <c r="CK5">
-        <v>0.364808332273535</v>
+        <v>0.4825954921899758</v>
       </c>
       <c r="CL5">
-        <v>0.4435136643105121</v>
+        <v>0.4871783307625087</v>
       </c>
       <c r="CM5">
-        <v>0.5229646672437496</v>
+        <v>0.4871936145007998</v>
       </c>
       <c r="CN5">
-        <v>0.5866362451059675</v>
+        <v>0.5470543533877288</v>
       </c>
       <c r="CO5">
-        <v>0.6213805324780901</v>
+        <v>0.5470543533877288</v>
       </c>
       <c r="CP5">
-        <v>0.6256505791115433</v>
+        <v>0.6787119726677835</v>
       </c>
       <c r="CQ5">
-        <v>0.6256505791115433</v>
+        <v>0.7422477627432766</v>
       </c>
       <c r="CR5">
-        <v>0.6352222870597589</v>
+        <v>0.7438441828228282</v>
       </c>
       <c r="CS5">
-        <v>0.6683057813430122</v>
+        <v>0.7447537995439714</v>
       </c>
       <c r="CT5">
-        <v>0.7223921805126772</v>
+        <v>0.8234099423828148</v>
       </c>
       <c r="CU5">
-        <v>0.7956038749203125</v>
+        <v>0.8252592387859307</v>
       </c>
       <c r="CV5">
-        <v>0.8765936976638442</v>
+        <v>0.8740041458507679</v>
       </c>
       <c r="CW5">
-        <v>0.9351727851771573</v>
+        <v>0.8850371255195435</v>
       </c>
       <c r="CX5">
-        <v>0.9602856665792404</v>
+        <v>0.8916817803867141</v>
       </c>
       <c r="CY5">
-        <v>0.9620901405779494</v>
+        <v>0.9342315342696121</v>
       </c>
       <c r="CZ5">
-        <v>0.9639008991811925</v>
+        <v>0.9417104433260708</v>
       </c>
       <c r="DA5">
-        <v>0.9737036009032152</v>
+        <v>0.9531545555259088</v>
       </c>
       <c r="DB5">
-        <v>1</v>
+        <v>0.9921086741172547</v>
       </c>
       <c r="DC5">
         <v>1</v>
       </c>
+      <c r="DD5">
+        <v>1</v>
+      </c>
+      <c r="DE5">
+        <v>1</v>
+      </c>
+      <c r="DF5">
+        <v>1</v>
+      </c>
+      <c r="DG5">
+        <v>1</v>
+      </c>
+      <c r="DH5">
+        <v>1</v>
+      </c>
+      <c r="DI5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:107">
+    <row r="6" spans="1:113">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4442,231 +4655,249 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.3190291204647784</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.5473335398995106</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.640182407666028</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.675608619137974</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.7024167623953258</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.7024167623953258</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.7051852232924622</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.7148803321475761</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.8547934074397275</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.8702413839606181</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.8702413839606181</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.8702413839606181</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.8702413839606181</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.8702413839606181</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.8702413839606181</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.8702413839606181</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.8702413839606181</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.8841144969472498</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.8841144969472498</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.8841144969472498</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.8849410193850358</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.8854779223663826</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.8854779223663826</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.8854779223663826</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.9076103768006476</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.9226573491410819</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.9228086058137909</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.9228086058137909</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.9410050624351464</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.9676441682522627</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.9829187913164883</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>1</v>
+        <v>0.04379986570066969</v>
       </c>
       <c r="CE6">
-        <v>1</v>
+        <v>0.07704216676720478</v>
       </c>
       <c r="CF6">
-        <v>1</v>
+        <v>0.1048540330111511</v>
       </c>
       <c r="CG6">
-        <v>1</v>
+        <v>0.1088417108970581</v>
       </c>
       <c r="CH6">
-        <v>1</v>
+        <v>0.1122962200713104</v>
       </c>
       <c r="CI6">
-        <v>1</v>
+        <v>0.1817177389767197</v>
       </c>
       <c r="CJ6">
-        <v>1</v>
+        <v>0.2240368971629013</v>
       </c>
       <c r="CK6">
-        <v>1</v>
+        <v>0.2240368971629013</v>
       </c>
       <c r="CL6">
-        <v>1</v>
+        <v>0.2554318516363295</v>
       </c>
       <c r="CM6">
-        <v>1</v>
+        <v>0.3288999210804055</v>
       </c>
       <c r="CN6">
-        <v>1</v>
+        <v>0.380716402294605</v>
       </c>
       <c r="CO6">
-        <v>1</v>
+        <v>0.4743683595689461</v>
       </c>
       <c r="CP6">
-        <v>1</v>
+        <v>0.4766381694986904</v>
       </c>
       <c r="CQ6">
-        <v>1</v>
+        <v>0.5311811225591163</v>
       </c>
       <c r="CR6">
-        <v>1</v>
+        <v>0.532786135758848</v>
       </c>
       <c r="CS6">
-        <v>1</v>
+        <v>0.5494507766206171</v>
       </c>
       <c r="CT6">
-        <v>1</v>
+        <v>0.5620437592095371</v>
       </c>
       <c r="CU6">
-        <v>1</v>
+        <v>0.6323693740313453</v>
       </c>
       <c r="CV6">
-        <v>1</v>
+        <v>0.6719030796756</v>
       </c>
       <c r="CW6">
-        <v>1</v>
+        <v>0.7114367853198548</v>
       </c>
       <c r="CX6">
-        <v>1</v>
+        <v>0.7259163058144312</v>
       </c>
       <c r="CY6">
-        <v>1</v>
+        <v>0.7321163298213044</v>
       </c>
       <c r="CZ6">
-        <v>1</v>
+        <v>0.7580313211859053</v>
       </c>
       <c r="DA6">
-        <v>1</v>
+        <v>0.7621383386654516</v>
       </c>
       <c r="DB6">
-        <v>1</v>
+        <v>0.7626240137475911</v>
       </c>
       <c r="DC6">
+        <v>0.7686715686718841</v>
+      </c>
+      <c r="DD6">
+        <v>0.7917333451230135</v>
+      </c>
+      <c r="DE6">
+        <v>0.8133668281453018</v>
+      </c>
+      <c r="DF6">
+        <v>0.8257981145867437</v>
+      </c>
+      <c r="DG6">
+        <v>0.8658288046001901</v>
+      </c>
+      <c r="DH6">
+        <v>0.9613988260878487</v>
+      </c>
+      <c r="DI6">
         <v>1</v>
       </c>
     </row>
@@ -4685,302 +4916,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>0.01058060450563117</v>
+        <v>0.09032313690780736</v>
       </c>
       <c r="F2">
-        <v>0.550210241280749</v>
+        <v>0.565180294716548</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L2">
-        <v>319</v>
+        <v>137</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D3">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>0.01074939328408899</v>
+        <v>0.1194460155693402</v>
       </c>
       <c r="F3">
-        <v>0.5568945890088136</v>
+        <v>0.5613228911016764</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L3">
-        <v>319</v>
+        <v>137</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>130</v>
-      </c>
-      <c r="O3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="E4">
-        <v>0.1113247496541179</v>
+        <v>0.08890487370479128</v>
       </c>
       <c r="F4">
-        <v>0.5617277880204118</v>
+        <v>0.5559367817923545</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L4">
-        <v>319</v>
+        <v>137</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>130</v>
-      </c>
-      <c r="O4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D5">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E5">
-        <v>0.01178581734813083</v>
+        <v>0.1588348537503719</v>
       </c>
       <c r="F5">
-        <v>0.5229646672437496</v>
+        <v>0.5470543533877288</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L5">
-        <v>319</v>
+        <v>137</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>130</v>
-      </c>
-      <c r="O5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="E6">
-        <v>0.3190291204647784</v>
+        <v>0.1048540330111511</v>
       </c>
       <c r="F6">
-        <v>0.5473335398995106</v>
+        <v>0.5311811225591163</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J6" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K6" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L6">
-        <v>319</v>
+        <v>137</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>130</v>
-      </c>
-      <c r="O6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4998,302 +5214,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>0.01058060450563117</v>
+        <v>0.09032313690780736</v>
       </c>
       <c r="F2">
-        <v>0.7089261054755966</v>
+        <v>0.7099719324722288</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L2">
-        <v>319</v>
+        <v>137</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D3">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3">
-        <v>0.01074939328408899</v>
+        <v>0.1194460155693402</v>
       </c>
       <c r="F3">
-        <v>0.7206944478778495</v>
+        <v>0.7328968221101907</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L3">
-        <v>319</v>
+        <v>137</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>130</v>
-      </c>
-      <c r="O3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="E4">
-        <v>0.1113247496541179</v>
+        <v>0.08890487370479128</v>
       </c>
       <c r="F4">
-        <v>0.7557557319676199</v>
+        <v>0.7660944992945917</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L4">
-        <v>319</v>
+        <v>137</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>130</v>
-      </c>
-      <c r="O4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D5">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>0.01178581734813083</v>
+        <v>0.1588348537503719</v>
       </c>
       <c r="F5">
-        <v>0.7223921805126772</v>
+        <v>0.7422477627432766</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L5">
-        <v>319</v>
+        <v>137</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>130</v>
-      </c>
-      <c r="O5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>0.3190291204647784</v>
+        <v>0.1048540330111511</v>
       </c>
       <c r="F6">
-        <v>0.7024167623953258</v>
+        <v>0.7114367853198548</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J6" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K6" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L6">
-        <v>319</v>
+        <v>137</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>130</v>
-      </c>
-      <c r="O6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5311,302 +5512,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>0.01058060450563117</v>
+        <v>0.09032313690780736</v>
       </c>
       <c r="F2">
-        <v>0.8641015743036363</v>
+        <v>0.8103384003475452</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L2">
-        <v>319</v>
+        <v>137</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D3">
         <v>99</v>
       </c>
       <c r="E3">
-        <v>0.01074939328408899</v>
+        <v>0.1194460155693402</v>
       </c>
       <c r="F3">
-        <v>0.844843802763138</v>
+        <v>0.813503739182721</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L3">
-        <v>319</v>
+        <v>137</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>130</v>
-      </c>
-      <c r="O3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="E4">
-        <v>0.1113247496541179</v>
+        <v>0.08890487370479128</v>
       </c>
       <c r="F4">
-        <v>0.8201272202035665</v>
+        <v>0.8230421993283791</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L4">
-        <v>319</v>
+        <v>137</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>130</v>
-      </c>
-      <c r="O4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D5">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5">
-        <v>0.01178581734813083</v>
+        <v>0.1588348537503719</v>
       </c>
       <c r="F5">
-        <v>0.8765936976638442</v>
+        <v>0.8234099423828148</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L5">
-        <v>319</v>
+        <v>137</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>130</v>
-      </c>
-      <c r="O5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="E6">
-        <v>0.3190291204647784</v>
+        <v>0.1048540330111511</v>
       </c>
       <c r="F6">
-        <v>0.8547934074397275</v>
+        <v>0.8133668281453018</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J6" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K6" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L6">
-        <v>319</v>
+        <v>137</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>130</v>
-      </c>
-      <c r="O6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5624,302 +5810,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="E2">
-        <v>0.01058060450563117</v>
+        <v>0.09032313690780736</v>
       </c>
       <c r="F2">
-        <v>0.9448679532662473</v>
+        <v>0.9623629204462727</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L2">
-        <v>319</v>
+        <v>137</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D3">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E3">
-        <v>0.01074939328408899</v>
+        <v>0.1194460155693402</v>
       </c>
       <c r="F3">
-        <v>0.9021170387835368</v>
+        <v>0.9160721644573413</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L3">
-        <v>319</v>
+        <v>137</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>130</v>
-      </c>
-      <c r="O3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="E4">
-        <v>0.1113247496541179</v>
+        <v>0.08890487370479128</v>
       </c>
       <c r="F4">
-        <v>0.947930535949551</v>
+        <v>0.9242509731881322</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L4">
-        <v>319</v>
+        <v>137</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>130</v>
-      </c>
-      <c r="O4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E5">
-        <v>0.01178581734813083</v>
+        <v>0.1588348537503719</v>
       </c>
       <c r="F5">
-        <v>0.9351727851771573</v>
+        <v>0.9342315342696121</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L5">
-        <v>319</v>
+        <v>137</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>130</v>
-      </c>
-      <c r="O5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="E6">
-        <v>0.3190291204647784</v>
+        <v>0.1048540330111511</v>
       </c>
       <c r="F6">
-        <v>0.9076103768006476</v>
+        <v>0.9613988260878487</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J6" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K6" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L6">
-        <v>319</v>
+        <v>137</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>130</v>
-      </c>
-      <c r="O6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
